--- a/RancanganDatabase_ATM_NabilahKathryna.xlsx
+++ b/RancanganDatabase_ATM_NabilahKathryna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\20_PTS_ATM_NabilahKathryna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF418426-6250-406B-9D28-3D929176EBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB6EF9-D462-4346-B529-8772679F8071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="10160" windowHeight="10080" xr2:uid="{D549C366-78A9-45CF-AC34-78822A6B710C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D549C366-78A9-45CF-AC34-78822A6B710C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Rancangan Database</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>Pembayaran</t>
+  </si>
+  <si>
+    <t>RELASI</t>
+  </si>
+  <si>
+    <t>RESOURCE</t>
+  </si>
+  <si>
+    <t>FOREIGN</t>
+  </si>
+  <si>
+    <t>user.id</t>
+  </si>
+  <si>
+    <t>struk.user_id</t>
   </si>
 </sst>
 </file>
@@ -465,25 +480,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479E323-B807-4C8A-B7EF-0CC54DF7F4DE}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -493,8 +511,14 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -504,8 +528,14 @@
       <c r="C5">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -516,7 +546,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -527,12 +557,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -540,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -548,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -556,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -564,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -572,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
